--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail9 Features.xlsx
@@ -3957,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,29 +3968,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4011,115 +4009,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4136,72 +4124,66 @@
         <v>3.247131553408621e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.094140724702322</v>
+        <v>1.907020656120845e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.810722250420342</v>
+        <v>5.278171592575592e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.907020656120845e-06</v>
+        <v>0.09540179655257242</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.278171592575592e-06</v>
+        <v>0.2036308565038396</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09540179655257242</v>
+        <v>0.05047772595702937</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2036308565038396</v>
+        <v>1.557345683011165</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05047772595702937</v>
+        <v>1.511424531413332</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.461192297256769</v>
+        <v>4.196376442867132</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.511424531413332</v>
+        <v>4.173397348139352e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.196376442867132</v>
+        <v>12366225.86306422</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.173397348139352e-14</v>
+        <v>8.539362506541409e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12366225.86306422</v>
+        <v>6.382107050528522</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.539362506541409e-06</v>
+        <v>0.0001348911035759266</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.382107050528522</v>
+        <v>7.981462797986677</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001348911035759266</v>
+        <v>1.322707870919362</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.981462797986677</v>
+        <v>0.00859306892301176</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.322707870919362</v>
+        <v>3.040757779231442</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00859306892301176</v>
+        <v>0.9443957815552608</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.040757779231442</v>
+        <v>1.851831815443403</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9443957815552608</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.851831815443403</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1771228442739669</v>
       </c>
     </row>
@@ -4216,72 +4198,66 @@
         <v>2.890260935619237e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.5164962123740791</v>
+        <v>1.573403002875204e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.130409901623342</v>
+        <v>5.306097912223027e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.573403002875204e-06</v>
+        <v>0.08695127586178708</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.306097912223027e-06</v>
+        <v>0.1841305869469848</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08695127586178708</v>
+        <v>0.04140146438685154</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1841305869469848</v>
+        <v>1.554305669159698</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04140146438685154</v>
+        <v>1.495497634662299</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.455947575634774</v>
+        <v>4.113516115283917</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.495497634662299</v>
+        <v>4.343223818817028e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.113516115283917</v>
+        <v>12200432.05540013</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.343223818817028e-14</v>
+        <v>8.700821823855109e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12200432.05540013</v>
+        <v>6.464912209281231</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.700821823855109e-06</v>
+        <v>0.000136744455741283</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.464912209281231</v>
+        <v>9.283629209253375</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000136744455741283</v>
+        <v>1.210618186208038</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.283629209253375</v>
+        <v>0.01178542638836413</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.210618186208038</v>
+        <v>2.851572913182448</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01178542638836413</v>
+        <v>0.9444352533526511</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.851572913182448</v>
+        <v>1.888860029353876</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9444352533526511</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.888860029353876</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1863824455968877</v>
       </c>
     </row>
@@ -4296,72 +4272,66 @@
         <v>2.657714757260556e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.07951649607595727</v>
+        <v>1.323754452832326e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.01174829097228258</v>
+        <v>5.328805402219961e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.323754452832326e-06</v>
+        <v>0.07705486511793393</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.328805402219961e-06</v>
+        <v>0.168755738299053</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07705486511793393</v>
+        <v>0.0343716857150953</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.168755738299053</v>
+        <v>1.548161979718811</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0343716857150953</v>
+        <v>1.483158535541204</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.447720364930377</v>
+        <v>4.183179427185101</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.483158535541204</v>
+        <v>4.19977119520489e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.183179427185101</v>
+        <v>12740122.6193125</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.19977119520489e-14</v>
+        <v>8.329515539300324e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>12740122.6193125</v>
+        <v>6.816679048194658</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.329515539300324e-06</v>
+        <v>0.0001324211876485105</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.816679048194658</v>
+        <v>8.805465032036221</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001324211876485105</v>
+        <v>1.262561282366794</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.805465032036221</v>
+        <v>0.01026743760064482</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.262561282366794</v>
+        <v>2.919875254120045</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01026743760064482</v>
+        <v>0.9413128429218562</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.919875254120045</v>
+        <v>1.886641007921115</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9413128429218562</v>
+        <v>21</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.886641007921115</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1884483967234353</v>
       </c>
     </row>
@@ -4376,72 +4346,66 @@
         <v>2.50788107517627e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1930059368609219</v>
+        <v>1.12918120804971e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6322927202143558</v>
+        <v>5.347337333380226e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.12918120804971e-06</v>
+        <v>0.06676681375119871</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.347337333380226e-06</v>
+        <v>0.1559516321975341</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06676681375119871</v>
+        <v>0.02874804394644306</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1559516321975341</v>
+        <v>1.565874909957791</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02874804394644306</v>
+        <v>1.554691835618555</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.466749214609193</v>
+        <v>4.236834488947157</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.554691835618555</v>
+        <v>4.094073348097655e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.236834488947157</v>
+        <v>13190507.81759916</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.094073348097655e-14</v>
+        <v>8.108749690280899e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>13190507.81759916</v>
+        <v>7.123257604128556</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.108749690280899e-06</v>
+        <v>0.0001271288695319993</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.123257604128556</v>
+        <v>8.010957067624945</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001271288695319993</v>
+        <v>1.324407124909921</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.010957067624945</v>
+        <v>0.008158550266729439</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.324407124909921</v>
+        <v>3.023995519944115</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008158550266729439</v>
+        <v>0.9410434789220701</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.023995519944115</v>
+        <v>1.8519294445646</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9410434789220701</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.8519294445646</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1915741934636906</v>
       </c>
     </row>
@@ -4456,72 +4420,66 @@
         <v>2.414129266606986e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3228253389776853</v>
+        <v>9.738244307979006e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.954757779234324</v>
+        <v>5.362535360293861e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.738244307979006e-07</v>
+        <v>0.05704433705148201</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.362535360293861e-06</v>
+        <v>0.1449901601139295</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05704433705148201</v>
+        <v>0.02425371670757864</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1449901601139295</v>
+        <v>1.57215659202263</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02425371670757864</v>
+        <v>1.57219816032272</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.476377915513141</v>
+        <v>4.184971942404602</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.57219816032272</v>
+        <v>4.196174257565752e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.184971942404602</v>
+        <v>12879141.42725877</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.196174257565752e-14</v>
+        <v>8.304385762177654e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>12879141.42725877</v>
+        <v>6.960290077588046</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.304385762177654e-06</v>
+        <v>0.0001270295752513425</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.960290077588046</v>
+        <v>7.558617584390364</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001270295752513425</v>
+        <v>1.364165708690591</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.558617584390364</v>
+        <v>0.00725754258691209</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.364165708690591</v>
+        <v>3.08581081708748</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00725754258691209</v>
+        <v>0.9405889802381631</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.08581081708748</v>
+        <v>1.873617164392136</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9405889802381631</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.873617164392136</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1868584471002423</v>
       </c>
     </row>
@@ -4536,72 +4494,66 @@
         <v>2.360187919684618e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3491405291748594</v>
+        <v>8.399071456789911e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.094342941119269</v>
+        <v>5.375034780838741e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.399071456789911e-07</v>
+        <v>0.04791259236790152</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.375034780838741e-06</v>
+        <v>0.1333643200976848</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04791259236790152</v>
+        <v>0.02006322693573563</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1333643200976848</v>
+        <v>1.571930388221014</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02006322693573563</v>
+        <v>1.500054460735068</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.479956213953069</v>
+        <v>4.156454647471139</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.500054460735068</v>
+        <v>4.253951403151765e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.156454647471139</v>
+        <v>12356259.13150922</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.253951403151765e-14</v>
+        <v>8.562545294159085e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>12356259.13150922</v>
+        <v>6.494811327623828</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.562545294159085e-06</v>
+        <v>0.0001356114363454381</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.494811327623828</v>
+        <v>8.410122283054621</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001356114363454381</v>
+        <v>1.323734730723602</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.410122283054621</v>
+        <v>0.009591818158746599</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.323734730723602</v>
+        <v>3.002004909320774</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009591818158746599</v>
+        <v>0.9396892643349004</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.002004909320774</v>
+        <v>1.861921093950567</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9396892643349004</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.861921093950567</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1809860239168856</v>
       </c>
     </row>
@@ -4978,7 +4930,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495038747052563</v>
+        <v>1.507892621736353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.19823745450151</v>
@@ -5067,7 +5019,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509887625658994</v>
+        <v>1.519132533777979</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.196593459162787</v>
@@ -5156,7 +5108,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.53193750049622</v>
+        <v>1.537983514042875</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.17836739023919</v>
@@ -5245,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540328138270334</v>
+        <v>1.553895615294838</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.083805732819627</v>
@@ -5334,7 +5286,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49915086546103</v>
+        <v>1.505995887012059</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.211740996841529</v>
@@ -5423,7 +5375,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.552735523862218</v>
+        <v>1.55626476532298</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.026357123688176</v>
@@ -5512,7 +5464,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569349616366276</v>
+        <v>1.56438404474573</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.152982486899062</v>
@@ -5601,7 +5553,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564016786109645</v>
+        <v>1.559380813807216</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.225816308132096</v>
@@ -5690,7 +5642,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.556744586273654</v>
+        <v>1.553361444293956</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.213175096573195</v>
@@ -5779,7 +5731,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.537878771624591</v>
+        <v>1.532535554369153</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.300257649427355</v>
@@ -5868,7 +5820,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.530588232670749</v>
+        <v>1.52754518344139</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.202508816739614</v>
@@ -5957,7 +5909,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515748191547873</v>
+        <v>1.514290589112517</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.299898141845633</v>
@@ -6046,7 +5998,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497464827370613</v>
+        <v>1.498612734402219</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.227318941699261</v>
@@ -6135,7 +6087,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503305527165994</v>
+        <v>1.510822862371436</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.32457260359635</v>
@@ -6224,7 +6176,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.505966920605869</v>
+        <v>1.513747730971679</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.267077617016327</v>
@@ -6313,7 +6265,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.501676724951963</v>
+        <v>1.506917179025904</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.217407167348581</v>
@@ -6402,7 +6354,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.519035200872513</v>
+        <v>1.527262568120372</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.314160687242531</v>
@@ -6491,7 +6443,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5319326593761</v>
+        <v>1.548889698086895</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.405543459765463</v>
@@ -6580,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553088341175917</v>
+        <v>1.573955263575191</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.346801867229413</v>
@@ -6669,7 +6621,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605341993390124</v>
+        <v>1.624936538233452</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.791977572824968</v>
@@ -6758,7 +6710,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593273175701748</v>
+        <v>1.615476352523199</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.449966713587644</v>
@@ -6847,7 +6799,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601154487374106</v>
+        <v>1.62611945226532</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.48186069954434</v>
@@ -6936,7 +6888,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588768522355403</v>
+        <v>1.611813234924732</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.514447093523905</v>
@@ -7025,7 +6977,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594141692824355</v>
+        <v>1.621672025889138</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.522136025841421</v>
@@ -7114,7 +7066,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613314532505256</v>
+        <v>1.643755899091213</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.57006885021357</v>
@@ -7203,7 +7155,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621765812486132</v>
+        <v>1.650026312777394</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.618279560410024</v>
@@ -7292,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588839796569667</v>
+        <v>1.615944694597562</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.440103145892315</v>
@@ -7381,7 +7333,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.600075635129383</v>
+        <v>1.63147552873778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.62196582684822</v>
@@ -7470,7 +7422,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571479796009699</v>
+        <v>1.60152967133978</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.583518821716813</v>
@@ -7559,7 +7511,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560000384541214</v>
+        <v>1.593385661155083</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.591032648326265</v>
@@ -7648,7 +7600,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561624525818017</v>
+        <v>1.595328409492987</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.525866917729322</v>
@@ -7737,7 +7689,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.60853724491765</v>
+        <v>1.645969206708233</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.599708368459761</v>
@@ -7826,7 +7778,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.651853140979998</v>
+        <v>1.685656358579915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.926773186082341</v>
@@ -7915,7 +7867,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675744746537142</v>
+        <v>1.703825864330718</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.910847039856354</v>
@@ -8004,7 +7956,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690590268600345</v>
+        <v>1.722319385157637</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.860167602059728</v>
@@ -8093,7 +8045,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.709360775368507</v>
+        <v>1.738258614768031</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.599518383259871</v>
@@ -8182,7 +8134,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.756699837693958</v>
+        <v>1.794735359603291</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.924117179102678</v>
@@ -8271,7 +8223,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.815950011430121</v>
+        <v>1.857033087088171</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.124813443740067</v>
@@ -8360,7 +8312,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.824590328469573</v>
+        <v>1.863002664153564</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.322212302432877</v>
@@ -8449,7 +8401,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.837637671634786</v>
+        <v>1.872868979782454</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.393321053211757</v>
@@ -8538,7 +8490,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.845886673876609</v>
+        <v>1.878804454986184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.356181465429964</v>
@@ -8627,7 +8579,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.879788396724912</v>
+        <v>1.908044859354624</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.132359505940946</v>
@@ -8716,7 +8668,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.893094898006741</v>
+        <v>1.914672131151144</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.549629593011271</v>
@@ -8805,7 +8757,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.909936284487403</v>
+        <v>1.926084904003892</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.657712654283705</v>
@@ -8894,7 +8846,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.922088371335944</v>
+        <v>1.935058269331476</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.734499652387272</v>
@@ -8983,7 +8935,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.928685124994706</v>
+        <v>1.941314122398325</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.763291458172137</v>
@@ -9072,7 +9024,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.930916723528683</v>
+        <v>1.939733376930283</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.743009617263658</v>
@@ -9161,7 +9113,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.924402846197384</v>
+        <v>1.937852340631486</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.654670609917509</v>
@@ -9250,7 +9202,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.929339898385928</v>
+        <v>1.942970134547283</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.373361998903621</v>
@@ -9339,7 +9291,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.918177640290756</v>
+        <v>1.935909580170917</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.622547161007985</v>
@@ -9428,7 +9380,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.927810341955988</v>
+        <v>1.947206011082728</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.370197314209463</v>
@@ -9714,7 +9666,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.443764827639764</v>
+        <v>1.433115203314644</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.292173391355682</v>
@@ -9803,7 +9755,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.466258280588135</v>
+        <v>1.453477968903009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.311472210019334</v>
@@ -9892,7 +9844,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.493885735962353</v>
+        <v>1.477882977195927</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.04583386524804</v>
@@ -9981,7 +9933,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.522729366616047</v>
+        <v>1.513549515867135</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.272309036458794</v>
@@ -10070,7 +10022,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.436110570967555</v>
+        <v>1.427768512411355</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.943068427132518</v>
@@ -10159,7 +10111,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.457328694795571</v>
+        <v>1.450174666909896</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.965718075795217</v>
@@ -10248,7 +10200,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470434378623943</v>
+        <v>1.462131390952081</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.987620805113123</v>
@@ -10337,7 +10289,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.480170640038043</v>
+        <v>1.471471543004705</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.012004697134338</v>
@@ -10426,7 +10378,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.462503283090502</v>
+        <v>1.459508228314548</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.973373924693362</v>
@@ -10515,7 +10467,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462148237954834</v>
+        <v>1.458474501749579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.980109834794921</v>
@@ -10604,7 +10556,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.452463208781776</v>
+        <v>1.450765280954053</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.982272349917297</v>
@@ -10693,7 +10645,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.451746131892159</v>
+        <v>1.452160296507238</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.041417924841545</v>
@@ -10782,7 +10734,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437104695736088</v>
+        <v>1.43879363639418</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.974776197356628</v>
@@ -10871,7 +10823,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.438275272027864</v>
+        <v>1.441153265867577</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.99556397796658</v>
@@ -10960,7 +10912,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.436434454050486</v>
+        <v>1.444095865264263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.037968861830132</v>
@@ -11049,7 +11001,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.43483636907229</v>
+        <v>1.439239493641957</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.998461625105959</v>
@@ -11138,7 +11090,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.433662271135709</v>
+        <v>1.442494547303286</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.010175630425548</v>
@@ -11227,7 +11179,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.44437636696819</v>
+        <v>1.456624455461039</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.076062744526864</v>
@@ -11316,7 +11268,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.462336426011228</v>
+        <v>1.475531297195648</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.912417622309354</v>
@@ -11405,7 +11357,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535643995642471</v>
+        <v>1.54991530367908</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.726120189118573</v>
@@ -11494,7 +11446,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.478440567949688</v>
+        <v>1.469050691936057</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.046050597089184</v>
@@ -11583,7 +11535,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.444485796800122</v>
+        <v>1.452137630728815</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.058058261008177</v>
@@ -11672,7 +11624,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.43954986020137</v>
+        <v>1.450397459647827</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.112989703460662</v>
@@ -11761,7 +11713,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.458597550663976</v>
+        <v>1.4691746168375</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.123565343364374</v>
@@ -11850,7 +11802,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.468994841954795</v>
+        <v>1.481961194803348</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.008142610424535</v>
@@ -11939,7 +11891,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485413311392105</v>
+        <v>1.499349609127653</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.039123541855289</v>
@@ -12028,7 +11980,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.460770952172532</v>
+        <v>1.47465641901904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.047276451845258</v>
@@ -12117,7 +12069,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.477153395494384</v>
+        <v>1.4918488409209</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.021170387502574</v>
@@ -12206,7 +12158,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.46772157333205</v>
+        <v>1.483026845108713</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.054000163039351</v>
@@ -12295,7 +12247,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.46011262327292</v>
+        <v>1.47736045111948</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.092055453256726</v>
@@ -12384,7 +12336,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464138700155671</v>
+        <v>1.479750602532882</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.115663966664594</v>
@@ -12473,7 +12425,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467935433185816</v>
+        <v>1.49179420139026</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.18323161982826</v>
@@ -12562,7 +12514,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483412523859935</v>
+        <v>1.509480648331706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.162543885604463</v>
@@ -12651,7 +12603,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.496999014174019</v>
+        <v>1.522784420297457</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.191113086690393</v>
@@ -12740,7 +12692,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521100607130556</v>
+        <v>1.549046221668179</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.278379005349275</v>
@@ -12829,7 +12781,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645570899718872</v>
+        <v>1.678412345302145</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.115169124895659</v>
@@ -12918,7 +12870,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.678052074298499</v>
+        <v>1.71850869902426</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.672280684088063</v>
@@ -13007,7 +12959,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.711241623687061</v>
+        <v>1.756144027590047</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.686378139638093</v>
@@ -13096,7 +13048,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719661597828274</v>
+        <v>1.764105411327125</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.795070844329747</v>
@@ -13185,7 +13137,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.743397739547294</v>
+        <v>1.785369927195674</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.879583331917287</v>
@@ -13274,7 +13226,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.754574743855192</v>
+        <v>1.796799174227951</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.788700382327959</v>
@@ -13363,7 +13315,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.788704838268751</v>
+        <v>1.82693827214825</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.736285961588009</v>
@@ -13452,7 +13404,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.79133371453868</v>
+        <v>1.825977098411717</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.03807300912498</v>
@@ -13541,7 +13493,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.801991294618897</v>
+        <v>1.835104707256545</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.898472569867665</v>
@@ -13630,7 +13582,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.801384628070034</v>
+        <v>1.83785657488481</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.095131320708736</v>
@@ -13719,7 +13671,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.807749629684078</v>
+        <v>1.841951222594297</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.10493347564377</v>
@@ -13808,7 +13760,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.840743432152654</v>
+        <v>1.866701046899947</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.23401751300248</v>
@@ -13897,7 +13849,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.821835757944549</v>
+        <v>1.853187308847928</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.467013029959165</v>
@@ -13986,7 +13938,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.830730687203207</v>
+        <v>1.861293928439383</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.332942720553975</v>
@@ -14075,7 +14027,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.819031362504825</v>
+        <v>1.855841790393259</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.466576584393533</v>
@@ -14164,7 +14116,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.820873500987691</v>
+        <v>1.858356346308608</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.71660499582968</v>
@@ -14450,7 +14402,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510943899868717</v>
+        <v>1.529647325167452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.38153618468728</v>
@@ -14539,7 +14491,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5265473862143</v>
+        <v>1.54119807600917</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.334352870874743</v>
@@ -14628,7 +14580,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523226180942874</v>
+        <v>1.537970623179958</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.239159622422233</v>
@@ -14717,7 +14669,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.559090779810883</v>
+        <v>1.573958152869914</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.565076706620859</v>
@@ -14806,7 +14758,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.522942332071343</v>
+        <v>1.541721828414246</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.501235946222285</v>
@@ -14895,7 +14847,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540801397368024</v>
+        <v>1.556293176388914</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.264632648064823</v>
@@ -14984,7 +14936,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.548673154487593</v>
+        <v>1.562524575717162</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.358576327514574</v>
@@ -15073,7 +15025,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.546641375444652</v>
+        <v>1.559314014874392</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.35720904185209</v>
@@ -15162,7 +15114,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534312929904339</v>
+        <v>1.547055202197677</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.407467180024656</v>
@@ -15251,7 +15203,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529506503521507</v>
+        <v>1.543757966209411</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.614861399502717</v>
@@ -15340,7 +15292,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.51443079009335</v>
+        <v>1.526224877277707</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.570859997503026</v>
@@ -15429,7 +15381,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515074401010954</v>
+        <v>1.524003998493145</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.452641260178335</v>
@@ -15518,7 +15470,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.499890140513624</v>
+        <v>1.509366965228014</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.522604862708225</v>
@@ -15607,7 +15559,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.475310823604732</v>
+        <v>1.489739443782078</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.626129252280134</v>
@@ -15696,7 +15648,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.473002177532226</v>
+        <v>1.489687210927327</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.521335481822154</v>
@@ -15785,7 +15737,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.464703012011052</v>
+        <v>1.474617058070127</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.462207804145332</v>
@@ -15874,7 +15826,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.478811448115487</v>
+        <v>1.491016344380147</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.569016522870226</v>
@@ -15963,7 +15915,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.500481668795576</v>
+        <v>1.518456958569816</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.684440426063194</v>
@@ -16052,7 +16004,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.523103894000008</v>
+        <v>1.54151065546997</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.45527380773627</v>
@@ -16141,7 +16093,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549411135105405</v>
+        <v>1.563035375783257</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.632552813633093</v>
@@ -16230,7 +16182,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538264910154314</v>
+        <v>1.553075791124113</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.512619564257438</v>
@@ -16319,7 +16271,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.536840891262552</v>
+        <v>1.553142142045151</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.549491925169564</v>
@@ -16408,7 +16360,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.517464261757394</v>
+        <v>1.536130621961262</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.588366590633436</v>
@@ -16497,7 +16449,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53002797807641</v>
+        <v>1.55013417062775</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.550673051970633</v>
@@ -16586,7 +16538,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541748976825595</v>
+        <v>1.559881166543236</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.545695008880377</v>
@@ -16675,7 +16627,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55848067335755</v>
+        <v>1.580595211732414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.635988487463499</v>
@@ -16764,7 +16716,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544468698979817</v>
+        <v>1.569465195100149</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.529796549783139</v>
@@ -16853,7 +16805,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572455663186875</v>
+        <v>1.59511559218506</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.406272879445313</v>
@@ -16942,7 +16894,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.582118049898912</v>
+        <v>1.602182434009559</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.59200613824465</v>
@@ -17031,7 +16983,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.560369219125864</v>
+        <v>1.584465840809884</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.589540699867487</v>
@@ -17120,7 +17072,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56077340180982</v>
+        <v>1.586537963002623</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.567776287591625</v>
@@ -17209,7 +17161,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551015535904089</v>
+        <v>1.580841536030616</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.685880543151465</v>
@@ -17298,7 +17250,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.55255059440595</v>
+        <v>1.580554480963694</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.71425780720408</v>
@@ -17387,7 +17339,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545011845221741</v>
+        <v>1.570907213388454</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.73548785371793</v>
@@ -17476,7 +17428,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.548836788452182</v>
+        <v>1.575040923039429</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.702570046375252</v>
@@ -17565,7 +17517,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588237663523331</v>
+        <v>1.609888000092149</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.734284962342773</v>
@@ -17654,7 +17606,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.686331895597553</v>
+        <v>1.705975992208316</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.983728557638375</v>
@@ -17743,7 +17695,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.741471002089734</v>
+        <v>1.763771575569706</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.29671133051665</v>
@@ -17832,7 +17784,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.753862049664459</v>
+        <v>1.774865201849836</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.365441331292015</v>
@@ -17921,7 +17873,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763943614245709</v>
+        <v>1.783898038439179</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.438771986271083</v>
@@ -18010,7 +17962,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.767942704653477</v>
+        <v>1.785809093831222</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.451446962196449</v>
@@ -18099,7 +18051,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.781505555416104</v>
+        <v>1.798178423907215</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.250663805524207</v>
@@ -18188,7 +18140,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.795839795352498</v>
+        <v>1.808562617332654</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.495166608194495</v>
@@ -18277,7 +18229,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.804825452652976</v>
+        <v>1.81744958084005</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.547651070002396</v>
@@ -18366,7 +18318,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.824775133481998</v>
+        <v>1.83354794891829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.617767682355291</v>
@@ -18455,7 +18407,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.853542033390172</v>
+        <v>1.859052240853279</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.049300878428714</v>
@@ -18544,7 +18496,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.865304464155344</v>
+        <v>1.867558315811436</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.373202126383406</v>
@@ -18633,7 +18585,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.859154924591045</v>
+        <v>1.865900761116083</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.462219272770816</v>
@@ -18722,7 +18674,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.85682623251388</v>
+        <v>1.865283225779645</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.36295731726706</v>
@@ -18811,7 +18763,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.858835364394196</v>
+        <v>1.868949769830892</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.741278162293951</v>
@@ -18900,7 +18852,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.86185682704087</v>
+        <v>1.875667185542887</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.479910119926221</v>
@@ -19186,7 +19138,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.172577551530569</v>
+        <v>1.169604935170309</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.670585539092865</v>
@@ -19275,7 +19227,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.176144935019712</v>
+        <v>1.172341020640406</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.661081813223077</v>
@@ -19364,7 +19316,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.179748065766907</v>
+        <v>1.178143233342712</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.657620737514204</v>
@@ -19453,7 +19405,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.23269731701819</v>
+        <v>1.234123165417589</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.516295294887953</v>
@@ -19542,7 +19494,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.24919625824234</v>
+        <v>1.249242870821533</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.564133419513364</v>
@@ -19631,7 +19583,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.284553737226017</v>
+        <v>1.28063883145879</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.51366244734244</v>
@@ -19720,7 +19672,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424545667064368</v>
+        <v>1.426884800453581</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.053425405304142</v>
@@ -19809,7 +19761,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.419457976177121</v>
+        <v>1.417822013107075</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.179694328772318</v>
@@ -19898,7 +19850,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437083770648486</v>
+        <v>1.434451850066378</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.270746384325546</v>
@@ -19987,7 +19939,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.350719845114391</v>
+        <v>1.336578393944385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.544935503276553</v>
@@ -20076,7 +20028,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.274137870166178</v>
+        <v>1.269178282302017</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.571945206049053</v>
@@ -20165,7 +20117,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.263839599256583</v>
+        <v>1.259364932369796</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.574819326659266</v>
@@ -20254,7 +20206,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.202938529828287</v>
+        <v>1.190211480540813</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.669058268011818</v>
@@ -20343,7 +20295,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.166559829701001</v>
+        <v>1.15989303294765</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.695195061791047</v>
@@ -20432,7 +20384,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.158928687990205</v>
+        <v>1.153286771315481</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.706207520816554</v>
@@ -20521,7 +20473,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.162249069489048</v>
+        <v>1.157251601417995</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.714171277713498</v>
@@ -20610,7 +20562,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.167226913589938</v>
+        <v>1.167723061521815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.719972863935872</v>
@@ -20699,7 +20651,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.167062029390646</v>
+        <v>1.169327932858012</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.733499974134346</v>
@@ -20788,7 +20740,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.168881455174666</v>
+        <v>1.172332362866638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.728499224049194</v>
@@ -20877,7 +20829,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.171164192382509</v>
+        <v>1.176613098486474</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.749394089881627</v>
@@ -20966,7 +20918,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.173725732441699</v>
+        <v>1.179934982515607</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.762996248535279</v>
@@ -21055,7 +21007,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.175859701388607</v>
+        <v>1.184531490512655</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.758717005354295</v>
@@ -21144,7 +21096,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.157820241660836</v>
+        <v>1.161896665000723</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.811409134416363</v>
@@ -21233,7 +21185,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.15716778076866</v>
+        <v>1.162632748390438</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.810990231132925</v>
@@ -21322,7 +21274,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.187605906135373</v>
+        <v>1.200405893686417</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.681912678920091</v>
@@ -21411,7 +21363,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.205186005995538</v>
+        <v>1.222200633335921</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.765950840846831</v>
@@ -21500,7 +21452,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.186105022799297</v>
+        <v>1.195032362643484</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.752333787607872</v>
@@ -21589,7 +21541,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.219440288060018</v>
+        <v>1.237119494496727</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.610135548096066</v>
@@ -21678,7 +21630,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.231931908218096</v>
+        <v>1.248564062324036</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.738834964599637</v>
@@ -21767,7 +21719,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.192422822102869</v>
+        <v>1.204665056853023</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.811149727728681</v>
@@ -21856,7 +21808,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.189442454499397</v>
+        <v>1.202523450563243</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.818803724046785</v>
@@ -21945,7 +21897,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.21213339850419</v>
+        <v>1.229151428100044</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.832714185915461</v>
@@ -22034,7 +21986,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.217274101711837</v>
+        <v>1.234636114829988</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.832419553491517</v>
@@ -22123,7 +22075,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.225419807414872</v>
+        <v>1.238889502810608</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.847144766349536</v>
@@ -22212,7 +22164,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.195252506288851</v>
+        <v>1.20752135062053</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.884652570175936</v>
@@ -22301,7 +22253,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.222452773951364</v>
+        <v>1.236762927809987</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.932407737430694</v>
@@ -22390,7 +22342,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.298698628746052</v>
+        <v>1.327902724616048</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.011187650408425</v>
@@ -22479,7 +22431,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.37867212033671</v>
+        <v>1.4218036720718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.069817734580823</v>
@@ -22568,7 +22520,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.394103588136477</v>
+        <v>1.43791841112486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.099446587691255</v>
@@ -22657,7 +22609,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.405707985245964</v>
+        <v>1.449416296786371</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.096236870152687</v>
@@ -22746,7 +22698,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.402504949206561</v>
+        <v>1.444897769877834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.154204424389946</v>
@@ -22835,7 +22787,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.402608137035926</v>
+        <v>1.450544495768312</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.048708772855342</v>
@@ -22924,7 +22876,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.423608741988569</v>
+        <v>1.472952763640859</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.146512579252321</v>
@@ -23013,7 +22965,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.397097002648433</v>
+        <v>1.439987841933394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.059707993271476</v>
@@ -23102,7 +23054,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.441306719022568</v>
+        <v>1.494503683986683</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.187207662392427</v>
@@ -23191,7 +23143,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449146803641847</v>
+        <v>1.500615012933583</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.145276713114183</v>
@@ -23280,7 +23232,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435813536565078</v>
+        <v>1.483703920065558</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.165900080733391</v>
@@ -23369,7 +23321,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391645773782353</v>
+        <v>1.440135766764437</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.161822942465308</v>
@@ -23458,7 +23410,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.406819023496184</v>
+        <v>1.45388052510481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.978538840159428</v>
@@ -23547,7 +23499,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.398412715872261</v>
+        <v>1.446964124182156</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.200632413164756</v>
@@ -23636,7 +23588,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.387625862190971</v>
+        <v>1.438371536586151</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.156315134925141</v>
@@ -23922,7 +23874,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606874677245438</v>
+        <v>1.631937496381638</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.510790523915698</v>
@@ -24011,7 +23963,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.613418856858444</v>
+        <v>1.633931563622616</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.595470438931302</v>
@@ -24100,7 +24052,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618715971206605</v>
+        <v>1.639356133197482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.425094545792012</v>
@@ -24189,7 +24141,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.634840735112473</v>
+        <v>1.658243372916303</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.506452143579311</v>
@@ -24278,7 +24230,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.473970077254739</v>
+        <v>1.506517410237109</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.845690210629954</v>
@@ -24367,7 +24319,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460589183178985</v>
+        <v>1.491721477611961</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.836098834125443</v>
@@ -24456,7 +24408,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478294639594523</v>
+        <v>1.509450635467364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.853933997665528</v>
@@ -24545,7 +24497,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.492034127026409</v>
+        <v>1.523890671452853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.896643833443286</v>
@@ -24634,7 +24586,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.492372289149906</v>
+        <v>1.525147127455206</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.87795870601651</v>
@@ -24723,7 +24675,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.489333747897932</v>
+        <v>1.51982750972484</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.85135779991322</v>
@@ -24812,7 +24764,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.484891801124998</v>
+        <v>1.516831606923373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.856537172620597</v>
@@ -24901,7 +24853,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478477028316733</v>
+        <v>1.508625707618829</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.877967317345826</v>
@@ -24990,7 +24942,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458057637034856</v>
+        <v>1.491168411019193</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.889928557971241</v>
@@ -25079,7 +25031,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.450582713618094</v>
+        <v>1.48743882350284</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.854530314311308</v>
@@ -25168,7 +25120,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453071978801864</v>
+        <v>1.489538173344029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.899780659156712</v>
@@ -25257,7 +25209,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44610013364085</v>
+        <v>1.482743925682579</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.899099461163385</v>
@@ -25346,7 +25298,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.459068390759835</v>
+        <v>1.498547255834142</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.907953558212833</v>
@@ -25435,7 +25387,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470300357964845</v>
+        <v>1.510538414090008</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.891065222411259</v>
@@ -25524,7 +25476,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.485404712322652</v>
+        <v>1.525157567510554</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.86287790686682</v>
@@ -25613,7 +25565,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620719282923997</v>
+        <v>1.658891205175232</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.389586399484623</v>
@@ -25702,7 +25654,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.462869722770917</v>
+        <v>1.501533777806335</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.844485607455905</v>
@@ -25791,7 +25743,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.454335310927419</v>
+        <v>1.4923856679882</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.824823740668913</v>
@@ -25880,7 +25832,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.430825613813128</v>
+        <v>1.466469362295106</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.825529152793161</v>
@@ -25969,7 +25921,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430417693141156</v>
+        <v>1.467183796017307</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.826456815906697</v>
@@ -26058,7 +26010,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.433102337792068</v>
+        <v>1.470810739512217</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.810453145750568</v>
@@ -26147,7 +26099,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438974879066028</v>
+        <v>1.475015019697445</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.83111208168554</v>
@@ -26236,7 +26188,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.428320754213585</v>
+        <v>1.465441116840689</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.827999605290593</v>
@@ -26325,7 +26277,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.446922012844936</v>
+        <v>1.484108626456278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.812831480441396</v>
@@ -26414,7 +26366,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.449480959534206</v>
+        <v>1.48430178097266</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.838826996846231</v>
@@ -26503,7 +26455,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.434042582471577</v>
+        <v>1.469710604287605</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.844641037493629</v>
@@ -26592,7 +26544,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.437690031874003</v>
+        <v>1.471253232323623</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.846965198610883</v>
@@ -26681,7 +26633,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.441296730318137</v>
+        <v>1.474443547151895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.869307748685462</v>
@@ -26770,7 +26722,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.458050005311106</v>
+        <v>1.494878892515825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.889825377315851</v>
@@ -26859,7 +26811,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.473091543774301</v>
+        <v>1.510895356042392</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.887913236319517</v>
@@ -26948,7 +26900,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492327960054866</v>
+        <v>1.532817564741472</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.809072775885664</v>
@@ -27037,7 +26989,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667595827755083</v>
+        <v>1.704405044449704</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.59364895255823</v>
@@ -27126,7 +27078,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.701092124407044</v>
+        <v>1.734955649891162</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.071440197767162</v>
@@ -27215,7 +27167,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.747157529891231</v>
+        <v>1.782637321792606</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.38346638951997</v>
@@ -27304,7 +27256,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.761976377096658</v>
+        <v>1.798260879519772</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.553106073312761</v>
@@ -27393,7 +27345,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.781027227105859</v>
+        <v>1.817967834907704</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.589937090624942</v>
@@ -27482,7 +27434,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.782743921078426</v>
+        <v>1.819298344766716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.203369415431819</v>
@@ -27571,7 +27523,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.798293782422013</v>
+        <v>1.831983954330076</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.590257249189587</v>
@@ -27660,7 +27612,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.805385643987545</v>
+        <v>1.837387848039555</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.695087560041926</v>
@@ -27749,7 +27701,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.801297537692253</v>
+        <v>1.834866408306242</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.285379940365442</v>
@@ -27838,7 +27790,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.825726685332284</v>
+        <v>1.857821395253196</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.637533533770799</v>
@@ -27927,7 +27879,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.834434021760322</v>
+        <v>1.870683731052945</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.529070365442931</v>
@@ -28016,7 +27968,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.840615298857649</v>
+        <v>1.876103725682965</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.896147682646244</v>
@@ -28105,7 +28057,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.813893373479549</v>
+        <v>1.854121767641014</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.586566658110981</v>
@@ -28194,7 +28146,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.816972452805778</v>
+        <v>1.854192838917733</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.376328154737872</v>
@@ -28283,7 +28235,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817601790895683</v>
+        <v>1.850880855172948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.274224346160882</v>
@@ -28372,7 +28324,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.819521092561902</v>
+        <v>1.853386665208413</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.418272201194862</v>
@@ -28658,7 +28610,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488462754218413</v>
+        <v>1.482620474632779</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.229130577326793</v>
@@ -28747,7 +28699,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504665865556067</v>
+        <v>1.492677795407053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.243579333475717</v>
@@ -28836,7 +28788,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.54995499310361</v>
+        <v>1.534778906444478</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.325677776893856</v>
@@ -28925,7 +28877,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549552644698693</v>
+        <v>1.538915010415262</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.122255115287899</v>
@@ -29014,7 +28966,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476288024576914</v>
+        <v>1.467036489889076</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.957092948732527</v>
@@ -29103,7 +29055,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.505455241262449</v>
+        <v>1.489664523851203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.901273217793936</v>
@@ -29192,7 +29144,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.509032738830033</v>
+        <v>1.490202531050015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.943318862187916</v>
@@ -29281,7 +29233,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.504625347795769</v>
+        <v>1.486315670048242</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.945134567250309</v>
@@ -29370,7 +29322,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.499639726727514</v>
+        <v>1.481285874298636</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.95682010803208</v>
@@ -29459,7 +29411,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.501015312745865</v>
+        <v>1.486096961807265</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.941438210132891</v>
@@ -29548,7 +29500,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.500698120603187</v>
+        <v>1.486611753551594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.940829137178866</v>
@@ -29637,7 +29589,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.498815415761793</v>
+        <v>1.484846169255341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.934948817512963</v>
@@ -29726,7 +29678,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.492270500442066</v>
+        <v>1.481349052387957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.958613144420515</v>
@@ -29815,7 +29767,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.489112813014878</v>
+        <v>1.479284978554769</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.987234409906691</v>
@@ -29904,7 +29856,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.480374433858302</v>
+        <v>1.474150297957427</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.925749085836471</v>
@@ -29993,7 +29945,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.48432573281509</v>
+        <v>1.479627807135165</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.95787373524313</v>
@@ -30082,7 +30034,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508293936130729</v>
+        <v>1.506342411139896</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.97508734349717</v>
@@ -30171,7 +30123,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.519369565171959</v>
+        <v>1.523918257321086</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.008083038409327</v>
@@ -30260,7 +30212,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.538725108222396</v>
+        <v>1.544174353824943</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.932531915595294</v>
@@ -30349,7 +30301,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.625093819038558</v>
+        <v>1.633028328589221</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.782928522637201</v>
@@ -30438,7 +30390,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593528158543321</v>
+        <v>1.601074822912941</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.135034947783771</v>
@@ -30527,7 +30479,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59129038919878</v>
+        <v>1.604799024479012</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.17139257151457</v>
@@ -30616,7 +30568,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591708128405839</v>
+        <v>1.604679945446084</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.170997633004692</v>
@@ -30705,7 +30657,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59941600805388</v>
+        <v>1.615025470599121</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.198541789343731</v>
@@ -30794,7 +30746,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608728040991874</v>
+        <v>1.625970872017245</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.194573187869826</v>
@@ -30883,7 +30835,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61699138479872</v>
+        <v>1.635235915749393</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.213611874290393</v>
@@ -30972,7 +30924,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591428972332867</v>
+        <v>1.610400804154874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.217906628309128</v>
@@ -31061,7 +31013,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596423498720939</v>
+        <v>1.620020263167868</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.286376202961141</v>
@@ -31150,7 +31102,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574534441147169</v>
+        <v>1.595738163696</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.257964045553966</v>
@@ -31239,7 +31191,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568151524537104</v>
+        <v>1.588971159716062</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.261489223309387</v>
@@ -31328,7 +31280,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.564700081834834</v>
+        <v>1.586084679413237</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.237752959724925</v>
@@ -31417,7 +31369,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.566980343196863</v>
+        <v>1.587542971627927</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.360991824127469</v>
@@ -31506,7 +31458,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590914870778873</v>
+        <v>1.611321116500087</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.416935700791736</v>
@@ -31595,7 +31547,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61000506309057</v>
+        <v>1.626457140631435</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.450346780217137</v>
@@ -31684,7 +31636,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618975834488556</v>
+        <v>1.635195000984915</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.407414177251209</v>
@@ -31773,7 +31725,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668532289918441</v>
+        <v>1.685547734203265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.25534039718387</v>
@@ -31862,7 +31814,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.760310622407822</v>
+        <v>1.78524279888109</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.513600561717841</v>
@@ -31951,7 +31903,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.802560436672755</v>
+        <v>1.829398130205784</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.676385008384316</v>
@@ -32040,7 +31992,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.809070370934975</v>
+        <v>1.836054627155281</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.804045884680462</v>
@@ -32129,7 +32081,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.822316054433402</v>
+        <v>1.848094126897757</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.891781649522465</v>
@@ -32218,7 +32170,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.829835012897403</v>
+        <v>1.856685340232824</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.904176175276634</v>
@@ -32307,7 +32259,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.848526581341739</v>
+        <v>1.872855325056944</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.785434437311643</v>
@@ -32396,7 +32348,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.851284527296226</v>
+        <v>1.876195682574682</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.98372113988211</v>
@@ -32485,7 +32437,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.864238302176967</v>
+        <v>1.886719575845746</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.982982183348787</v>
@@ -32574,7 +32526,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.876869417658653</v>
+        <v>1.900998187512054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.076129995093328</v>
@@ -32663,7 +32615,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.886513648929504</v>
+        <v>1.909463055038799</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.058515819394259</v>
@@ -32752,7 +32704,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.912102498718625</v>
+        <v>1.93263572725261</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.940954057091803</v>
@@ -32841,7 +32793,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.906708464877314</v>
+        <v>1.929375231537635</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.118003394529326</v>
@@ -32930,7 +32882,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.909761463125527</v>
+        <v>1.933170656168248</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.040915826252348</v>
@@ -33019,7 +32971,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.898683926042768</v>
+        <v>1.927383812749987</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.059471528082015</v>
@@ -33108,7 +33060,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.907053810952405</v>
+        <v>1.932386845040077</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.127160412563327</v>
